--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrrc4b-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrrc4b-Ptprs.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N2">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O2">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P2">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q2">
-        <v>0.5659753049743332</v>
+        <v>0.5242449274756666</v>
       </c>
       <c r="R2">
-        <v>5.093777744768999</v>
+        <v>4.718204347281</v>
       </c>
       <c r="S2">
-        <v>0.03653789996109366</v>
+        <v>0.03402239974736252</v>
       </c>
       <c r="T2">
-        <v>0.03653789996109365</v>
+        <v>0.03402239974736253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q3">
         <v>3.350678044941</v>
@@ -632,10 +632,10 @@
         <v>30.156102404469</v>
       </c>
       <c r="S3">
-        <v>0.2163110972013861</v>
+        <v>0.2174519998097362</v>
       </c>
       <c r="T3">
-        <v>0.2163110972013861</v>
+        <v>0.2174519998097363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N4">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q4">
-        <v>4.037008928955666</v>
+        <v>4.037008928955667</v>
       </c>
       <c r="R4">
-        <v>36.333080360601</v>
+        <v>36.33308036060101</v>
       </c>
       <c r="S4">
-        <v>0.2606188416558444</v>
+        <v>0.2619934392612254</v>
       </c>
       <c r="T4">
-        <v>0.2606188416558444</v>
+        <v>0.2619934392612254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N5">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O5">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P5">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q5">
-        <v>0.5362851720924444</v>
+        <v>0.4967439015075556</v>
       </c>
       <c r="R5">
-        <v>4.826566548831999</v>
+        <v>4.470695113568</v>
       </c>
       <c r="S5">
-        <v>0.03462118187191974</v>
+        <v>0.03223764065879108</v>
       </c>
       <c r="T5">
-        <v>0.03462118187191973</v>
+        <v>0.03223764065879109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>46.509849</v>
       </c>
       <c r="O6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q6">
         <v>3.174906990048</v>
@@ -818,10 +818,10 @@
         <v>28.574162910432</v>
       </c>
       <c r="S6">
-        <v>0.2049637730985658</v>
+        <v>0.2060448258340513</v>
       </c>
       <c r="T6">
-        <v>0.2049637730985658</v>
+        <v>0.2060448258340514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N7">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O7">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P7">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q7">
-        <v>3.825234085614222</v>
+        <v>3.825234085614224</v>
       </c>
       <c r="R7">
-        <v>34.427106770528</v>
+        <v>34.42710677052801</v>
       </c>
       <c r="S7">
-        <v>0.2469472062111904</v>
+        <v>0.2482496946888335</v>
       </c>
       <c r="T7">
-        <v>0.2469472062111904</v>
+        <v>0.2482496946888335</v>
       </c>
     </row>
   </sheetData>
